--- a/data/financial_statements/soci/JBHT.xlsx
+++ b/data/financial_statements/soci/JBHT.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -122,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -177,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -479,884 +593,902 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN34"/>
+  <dimension ref="A1:AO34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>3649622000</v>
+      </c>
+      <c r="C2">
         <v>3838257000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>3837532000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>3488588000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>3496971000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>3144812000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>2908370000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>2618149000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>2737652000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>2472523000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>2145573000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>2280826000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>2450324000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>2363660000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>2261647000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>2089627000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>2317842000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>2209760000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>2139027000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>1948245000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>1990161000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>1843334000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>1726915000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>1629158000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>1721062000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>1690659000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>1615026000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>1528712000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>1621015000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>1586494000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>1539957000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>1440180000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>1609510000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>1601156000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>1547867000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>1406908000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>1474276000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>1435850000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>1382858000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>1291587000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>0.0437</v>
+      </c>
+      <c r="C3">
         <v>0.2205</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.3195</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.3325</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.2774</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.2719</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.3555</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.1479</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.1173</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.0461</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>-0.0513</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.0915</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.0572</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.0696</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.0573</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.0726</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.1647</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.1988</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.2386</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.1959</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.1564</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.09030000000000001</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.0693</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>0.06569999999999999</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>0.0617</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>0.06569999999999999</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>0.0487</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>0.0615</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>0.0071</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>-0.0092</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>-0.0051</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>0.0236</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>0.0917</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>0.1151</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>0.1193</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>0.0893</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>0.1017</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>0.1081</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>0.1018</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>0.1078</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>2107281000</v>
+      </c>
+      <c r="C4">
         <v>2272573000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>2312842000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>2133745000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2140941000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1904932000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1756092000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1547039000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1663408000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1470786000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1188890000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1322872000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1448031000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>1398185000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>1288717000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>1190186000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>1465888000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>1322587000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>1265151000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>1143454000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>1194102000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>1101729000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>1014680000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>945107000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>1012500000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>982608000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>922891000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>854353000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>925576200</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>904202000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>872460000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>825979000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>956351900</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>974573000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>950657000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>876152000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>910544300</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>893942000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>853700900</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>806007000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>1542341000</v>
+      </c>
+      <c r="C5">
         <v>1565684000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1524690000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1354843000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1356030000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1239880000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1152278000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1071110000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1074244000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>1001737000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>956683000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>957953900</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>1002292000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>965475000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>972929900</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>899440900</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>851954000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>887173100</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>873876100</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>804791000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>796059100</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>741605000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>712235000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>684051000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>708562000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>708051100</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>692135000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>674359100</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>695438600</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>682292000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>667497000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>614201000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>653158400</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>626583000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>597210000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>530755900</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>563731500</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>541908000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>529157100</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>485580000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>1088787000</v>
+      </c>
+      <c r="C6">
         <v>1036876000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1014036000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>871786000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>892272800</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>827128000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>771361000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>725913000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>731961100</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>693842000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>651202000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>673118000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>668799900</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>670810000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>655842000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>611716000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>615127800</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>603684000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>551641000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>530427000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>547926000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>480674000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>455570000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>442473000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>422408100</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>434073000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>425979000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>418117000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>414173000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>402245000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>410101000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>377603000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>391866000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>379067000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>366254000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>344482000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>344123100</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>326888000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>319467000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>299811000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>281948200</v>
+      </c>
+      <c r="C7">
         <v>362228000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>353082800</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>334293900</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>322503400</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>273829100</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>241546100</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>207651900</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>207692600</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>175502900</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>175183100</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>154741000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>205074700</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>167862100</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>193093000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>167794900</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>122740200</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>174688000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>214812100</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>168781000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>145812700</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>164971900</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>163615100</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>149388900</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>194360800</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>182977100</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>175792000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>167890100</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>192892700</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>193846100</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>173735000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>155220100</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>182905500</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>172100000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>159230000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>117306900</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>153532500</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>150729000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>147407100</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>125039100</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
         <v>14000000</v>
-      </c>
-      <c r="C8">
-        <v>13000000</v>
       </c>
       <c r="D8">
         <v>13000000</v>
       </c>
       <c r="E8">
+        <v>13000000</v>
+      </c>
+      <c r="F8">
         <v>10000000</v>
-      </c>
-      <c r="F8">
-        <v>12000000</v>
       </c>
       <c r="G8">
         <v>12000000</v>
@@ -1365,651 +1497,669 @@
         <v>12000000</v>
       </c>
       <c r="I8">
+        <v>12000000</v>
+      </c>
+      <c r="J8">
         <v>10000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>12000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>13000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>12000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>11189000</v>
+      </c>
+      <c r="C9">
         <v>13562000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>12842000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>12586000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>10191000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>11977000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>12059000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>12024000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>10831000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>11895000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>12818000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>12036000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>14531000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>12357000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>14763000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>13033000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>11459000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>9961000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>9855000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>9152000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>6265000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>8310000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>7393000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>6817000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>5947000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>6485000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>6420000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>6442000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>4375000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>7838000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>6661000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>6703000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>5670000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>6649000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>8329000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>6380000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>4888000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>5835000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>6230000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>6256000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>-11189000</v>
+      </c>
+      <c r="C10">
         <v>-13562000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-12842000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-12586000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-9698000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-11977000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-12059000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-12024000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-10345000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-11895000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>-12818000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>-12036000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>-12777000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>-12357000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>-14763000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>-13033000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>-11235000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>-9961000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>-9855000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>-9152000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>-6030000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>-8310000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>-7393000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>-6817000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>-5876000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>-6485000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>-6420000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>-6442000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>-4289000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>-7838000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>-6661000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>-6703000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>-5583000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>-6649000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>-8329000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>-6380000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>-4819000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>-5835000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>-6230000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>-6256000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>270759000</v>
+      </c>
+      <c r="C11">
         <v>348666000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>340241000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>321708000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>312805000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>261852000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>229487000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>195628000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>197347000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>163608000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>162365000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>142705000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>192298000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>155505000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>178330000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>154762000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>111505000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>164727000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>204957000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>159629000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>139783000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>156662000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>156222000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>142572000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>188485000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>176492000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>169372000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>161448000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>188604000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>186008000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>167074000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>148517000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>177322000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>165451000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>150901000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>110927000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>148714000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>144894000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>141177000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>118783000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>69456000</v>
+      </c>
+      <c r="C12">
         <v>79284000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>84899000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>78383000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>70596000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>62023000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>57325000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>49022000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>43340000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>38112000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>40667000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>37871000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>47622000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>37095000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>44697000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>35161000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>22824000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>33617000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>53305000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>41487000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>-245524000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>56277000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>58353000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>39870000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>70929000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>67067000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>64361000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>61350000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>71859000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>70869000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>63655000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>56585000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>67016000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>63037000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>57493000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>42263000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>56850000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>55422000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>53480000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>45434000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>201303000</v>
+      </c>
+      <c r="C13">
         <v>269382000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>255342000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>243325000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>242209000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>199829000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>172162000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>146606000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>154007000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>125496000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>121698000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>104834000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>144676000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>118410000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>133633000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>119601000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>88681000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>131110000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>151652000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>118142000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>385306900</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>100385000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>97869000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>102702000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>117556000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>109425000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>105011000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>100098000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>116745000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>115139000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>103419000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>91932000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>110306000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>102414000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>93408000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>68664000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>91864000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>89472000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>87697000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>73349000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14">
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14">
         <v>0</v>
       </c>
-      <c r="I14">
+      <c r="E14">
         <v>0</v>
       </c>
-      <c r="K14">
+      <c r="J14">
         <v>0</v>
       </c>
-      <c r="S14">
+      <c r="L14">
         <v>0</v>
       </c>
-      <c r="X14">
+      <c r="T14">
         <v>0</v>
       </c>
-      <c r="AA14">
+      <c r="Y14">
         <v>0</v>
       </c>
-      <c r="AC14">
+      <c r="AB14">
         <v>0</v>
       </c>
       <c r="AD14">
@@ -2018,2450 +2168,2492 @@
       <c r="AE14">
         <v>0</v>
       </c>
-      <c r="AI14">
+      <c r="AF14">
         <v>0</v>
       </c>
-      <c r="AM14">
+      <c r="AJ14">
         <v>0</v>
       </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>201303000</v>
+      </c>
+      <c r="C15">
         <v>269382000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>255342000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>243325000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>242209100</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>199829000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>172162000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>146606000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>154007000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>125496000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>121698000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>104834000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>144676000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>118410000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>133633000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>119601000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>88681000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>131110000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>151652000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>118142000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>385307000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>100385000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>97869000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>102702000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>117556000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>109425000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>105011000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>100098000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>116745000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>115139000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>103419000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>91932000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>110306000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>102414000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>93408000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>68664000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>91864000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>89472000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>87697000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>73349000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>2.57</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>2.42</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>2.29</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>2.28</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>1.88</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>1.61</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>1.37</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>1.44</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>1.18</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>1.14</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>0.98</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>1.35</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>1.4</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>1.23</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>1.09</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>0.8100000000000001</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>1.19</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>1.37</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>1.07</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>3.48</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>0.91</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>0.88</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>0.92</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>1.05</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>0.97</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>0.92</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>0.88</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>1.01</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>0.99</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>0.88</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>0.78</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>0.93</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>0.87</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>0.79</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>0.58</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>0.77</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>0.75</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>0.73</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>0.61</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>2.57</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>2.42</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>2.29</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>2.28</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>1.88</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>1.61</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>1.37</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>1.44</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>1.18</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>1.14</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>0.98</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>1.35</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>1.4</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>1.23</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>1.09</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>0.8100000000000001</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>1.19</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>1.37</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>1.07</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>3.48</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>0.91</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>0.88</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>0.92</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>1.05</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>0.97</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>0.92</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>0.88</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>1.01</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>0.99</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>0.88</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>0.78</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>0.93</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>0.87</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>0.79</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>0.58</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>0.77</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>0.75</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>0.73</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>0.61</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
         <v>103757000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>104252000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>104894000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>105359000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>105173000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>105509000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>105678000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>105700000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>105653000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>105505000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>105985000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>107329000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>106735000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>107387000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>108730000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>109375000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>109254000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>109449000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>109754000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>109987000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>109703000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>109630000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>110878000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>112474000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>112630000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>112669000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>113072000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>115677000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>115456000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>116470000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>116558000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>117000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>117050000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>116764000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>117250000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>117449000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>117723000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>117139000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>117553000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>104737000</v>
+      </c>
+      <c r="C19">
         <v>104924000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>105387000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>106075000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>106593000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>106436000</v>
-      </c>
-      <c r="G19">
-        <v>106816000</v>
       </c>
       <c r="H19">
         <v>106816000</v>
       </c>
       <c r="I19">
+        <v>106816000</v>
+      </c>
+      <c r="J19">
         <v>106766000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>106798000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>106580000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>106950000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>108307000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>107692000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>108373000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>109664000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>110428000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>110235000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>110682000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>110863000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>111049000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>110628000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>110822000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>112026000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>113361000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>113363000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>113761000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>114003000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>116728000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>116282000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>117811000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>117800000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>118445000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>118221000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>118541000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>118943000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>119404000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>119357000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>119472000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>119825000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>0.4226</v>
+      </c>
+      <c r="C20">
         <v>0.4079</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.3973</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.3884</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.3878</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.3943</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.3962</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.4091</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.3924</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>0.4051</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>0.4459</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>0.42</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0.409</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>0.4085</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>0.4302</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>0.4304</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>0.3676</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>0.4015</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>0.4085</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>0.4131</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>0.4</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>0.4023</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0.4124</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>0.4199</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>0.4117</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>0.4188</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>0.4286</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>0.4411</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>0.429</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>0.4301</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>0.4335</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>0.4265</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>0.4058</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>0.3913</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>0.3858</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>0.3772</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>0.3824</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>0.3774</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>0.3827</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>0.376</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>0.07729999999999999</v>
+      </c>
+      <c r="C21">
         <v>0.0944</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.092</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.0958</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.0922</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.0871</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.08309999999999999</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.0793</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.0759</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.07099999999999999</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.08160000000000001</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.0678</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.0837</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>0.07099999999999999</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.0854</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.0803</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>0.053</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>0.0791</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>0.1004</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>0.0866</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.0733</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.0895</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.09470000000000001</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>0.0917</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>0.1129</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>0.1082</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>0.1088</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>0.1098</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>0.119</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>0.1222</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>0.1128</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>0.1078</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>0.1136</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>0.1075</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>0.1029</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>0.0834</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>0.1041</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>0.105</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>0.1066</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>0.0968</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>0.0742</v>
+      </c>
+      <c r="C22">
         <v>0.09080000000000001</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.0887</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.0922</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.0895</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.0833</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.0789</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.0747</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.0721</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.06619999999999999</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>0.0757</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0.0626</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>0.0785</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>0.0658</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>0.0788</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>0.0741</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>0.0481</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>0.0745</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>0.0958</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>0.0819</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>0.0702</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.08500000000000001</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.0905</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>0.08749999999999999</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>0.1095</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>0.1044</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>0.1049</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>0.1056</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>0.1163</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>0.1172</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>0.1085</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>0.1031</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>0.1102</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>0.1033</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>0.0975</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>0.0788</v>
-      </c>
-      <c r="AK22">
-        <v>0.1009</v>
       </c>
       <c r="AL22">
         <v>0.1009</v>
       </c>
       <c r="AM22">
+        <v>0.1009</v>
+      </c>
+      <c r="AN22">
         <v>0.1021</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>0.092</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>0.0552</v>
+      </c>
+      <c r="C23">
         <v>0.0702</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.0665</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.0697</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0.0693</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.0635</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.0592</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>0.056</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>0.0563</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>0.0508</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>0.0567</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>0.046</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>0.059</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>0.0501</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>0.0591</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>0.0572</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>0.0383</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>0.0593</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>0.0709</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>0.0606</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>0.1936</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>0.0545</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>0.0567</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>0.063</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>0.0683</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>0.06469999999999999</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>0.065</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>0.0655</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>0.07199999999999999</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>0.0726</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>0.0672</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>0.0638</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>0.06850000000000001</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>0.064</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>0.0603</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>0.0488</v>
-      </c>
-      <c r="AK23">
-        <v>0.0623</v>
       </c>
       <c r="AL23">
         <v>0.0623</v>
       </c>
       <c r="AM23">
+        <v>0.0623</v>
+      </c>
+      <c r="AN23">
         <v>0.0634</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>0.0568</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24">
         <v>528808000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>510653800</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>483056900</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>463757400</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>412752100</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>380917100</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>345196800</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>342281600</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>307895900</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>305481100</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>284836000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>333491700</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>294666100</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>317087000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>287724900</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>236826200</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>283489000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>322235100</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>274364000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>248132800</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>260931900</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>256664100</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>241577900</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>286153800</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>273978100</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>266156000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>256242100</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>281266700</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>280047100</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>257395000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>236598100</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>261292500</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>247516000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>230956000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>186273900</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>219608500</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>215020000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>209690100</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>185769100</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>281948200</v>
+      </c>
+      <c r="C25">
         <v>362228000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>353082800</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>334293900</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>322503200</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>273829100</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>241546100</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>207651900</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>207692100</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>175502900</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>175183100</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>154741000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>205075200</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>167862100</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>193093000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>167794900</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>122740400</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>174688000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>214812100</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>168781000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>145813100</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>164971900</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>163615100</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>149388900</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>194360800</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>182977100</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>175792000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>167890100</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>192892700</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>193846100</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>173735000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>155220100</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>182905200</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>172100000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>159230000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>117306900</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>153532300</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>150729000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>147407100</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>125039100</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>201303000</v>
+      </c>
+      <c r="C26">
         <v>269382000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>255342000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>243325000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>242209000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>199829000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>172162000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>146606000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>154007000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>125496000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>121698000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>104834000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>144676000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>118410000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>133633000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>119601000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>88681000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>131110000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>151652000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>118142000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>385306900</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>100385000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>97869000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>102702000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>117556000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>109425000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>105011000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>100098000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>116745000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>115139000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>103419000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>91932000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>110306000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>102414000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>93408000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>68664000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>91864000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>89472000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>87697000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>73349000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>201303000</v>
+      </c>
+      <c r="C27">
         <v>269382000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>255342000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>243325000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>242209000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>199829000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>172162000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>146606000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>154007000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>125496000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>121698000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>104834000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>144676000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>118410000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>133633000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>119601000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>88681000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>131110000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>151652000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>118142000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>385306900</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>100385000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>97869000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>102702000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>117556000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>109425000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>105011000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>100098000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>116745000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>115139000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>103419000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>91932000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>110306000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>102414000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>93408000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>68664000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>91864000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>89472000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>87697000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>73349000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28">
         <v>2.5963</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>2.4493</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>2.3197</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>2.3021</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>1.9</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>1.6317</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>1.3873</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>1.457</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>1.1878</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>1.1535</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>0.9891</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>1.3569</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>1.1094</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>1.2444</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>1.1</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>0.8141</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>1.2</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>1.3856</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>1.0764</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>3.5054</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>0.9151</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>0.8927</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>0.9263</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>1.0529</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>0.9715</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>0.9320000000000001</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>0.8853</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>1.0194</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>0.9973</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>0.8879</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>0.7887</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>0.9428</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>0.875</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>0.8</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>0.5856</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>0.7825</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>0.76</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>0.7487</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>0.624</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>1.922</v>
+      </c>
+      <c r="C29">
         <v>2.5674</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>2.4229</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>2.2939</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>2.2758</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>1.8775</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>1.6118</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>1.3725</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>1.4425</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>1.1751</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>1.1418</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>0.9802</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>1.344</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>1.0995</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>1.2331</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>1.0906</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>0.8083</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>1.1894</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>1.3702</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>1.0657</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>3.4725</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>0.9074</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>0.8831</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>0.9167999999999999</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>1.0453</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>0.9653</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>0.9231</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>0.878</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>1.0117</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>0.9902</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>0.8778</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>0.7804</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>0.9327</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>0.8663</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>0.788</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>0.5773</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>0.7716</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>0.7496</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>0.734</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>0.6121</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30">
         <v>2.5963</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>2.4493</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>2.3197</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>2.3021</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>1.9</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>1.6317</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>1.3873</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>1.457</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>1.1878</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>1.1535</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>0.9891</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>1.3569</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>1.1094</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>1.2444</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>1.1</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>0.8141</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>1.2</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>1.3856</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>1.0764</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>3.5054</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>0.9151</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>0.8927</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>0.9263</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>1.0529</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>0.9715</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>0.9320000000000001</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>0.8853</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>1.0194</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>0.9973</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>0.8879</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>0.7887</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>0.9428</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>0.875</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>0.8</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>0.5856</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>0.7825</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>0.76</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>0.7487</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>0.624</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>1.922</v>
+      </c>
+      <c r="C31">
         <v>2.5674</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>2.4229</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>2.2939</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>2.2758</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>1.8775</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>1.6118</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>1.3725</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>1.4425</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>1.1751</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>1.1418</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>0.9802</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>1.344</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>1.0995</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>1.2331</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>1.0906</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>0.8083</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>1.1894</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>1.3702</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>1.0657</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>3.4725</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>0.9074</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>0.8831</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>0.9167999999999999</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>1.0453</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>0.9653</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>0.9231</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>0.878</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>1.0117</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>0.9902</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>0.8778</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>0.7804</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>0.9327</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>0.8663</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>0.788</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>0.5773</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>0.7716</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>0.7496</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>0.734</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>0.6121</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32">
         <v>104924000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>105387000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>106075000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>106312000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>106436000</v>
-      </c>
-      <c r="G32">
-        <v>106816000</v>
       </c>
       <c r="H32">
         <v>106816000</v>
       </c>
       <c r="I32">
+        <v>106816000</v>
+      </c>
+      <c r="J32">
         <v>106738000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>106798000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>106580000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>106950000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>107529000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>107692000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>108373000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>109664000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>109940000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>110235000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>110682000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>110863000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>110737000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>110628000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>110822000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>112026000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>112327000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>113363000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>113761000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>114003000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>115048000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>116282000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>117811000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>117800000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>118078000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>118221000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>118541000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>118943000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>118960000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>119357000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>119472000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>119825000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
         <v>0.1378</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>0.1331</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>0.1385</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>0.1326</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>0.1312</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>0.131</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>0.1318</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>0.125</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>0.1245</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>0.1424</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>0.1249</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>0.1361</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>0.1247</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>0.1402</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>0.1377</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>0.1022</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>0.1283</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>0.1506</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>0.1408</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>0.1247</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>0.1416</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>0.1486</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>0.1483</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>0.1663</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>0.1621</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>0.1648</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>0.1676</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>0.1735</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>0.1765</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>0.1671</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>0.1643</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>0.1623</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>0.1546</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>0.1492</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>0.1324</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>0.149</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>0.1498</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>0.1516</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>0.1438</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
         <v>0.1487</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>0.1284</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>0.08359999999999999</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>0.0726</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>0.09569999999999999</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>0.1046</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>0.1393</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>0.0774</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>0.1096</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>0.1821</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>0.1092</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>0.06560000000000001</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>0.14</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>0.1574</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>0.12</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>0.1338</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>0.1125</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>0.125</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>0.1343</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>0.1139</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>0.1004</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>0.0914</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>0.1753</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>0.0989</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>0.1241</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>0.1048</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>0.1994</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>0.1088</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>0.1534</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>0.1286</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>0.1774</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>0.0997</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>0.1158</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>0.0917</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>0.113</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>0.1106</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>0.0819</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>0.06279999999999999</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>0.1601</v>
       </c>
     </row>
